--- a/cyclist_initial_raw.xlsx
+++ b/cyclist_initial_raw.xlsx
@@ -344,7 +344,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BW414"/>
+  <dimension ref="A1:BW416"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -92309,6 +92309,444 @@
         <v>413</v>
       </c>
     </row>
+    <row r="415">
+      <c r="A415" s="1">
+        <v>44802.51022980324</v>
+      </c>
+      <c r="B415" s="1">
+        <v>44802.52385440972</v>
+      </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="I415" t="inlineStr">
+        <is>
+          <t>25-30</t>
+        </is>
+      </c>
+      <c r="J415" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>Cyclist</t>
+        </is>
+      </c>
+      <c r="M415">
+        <v>0</v>
+      </c>
+      <c r="N415">
+        <v>0</v>
+      </c>
+      <c r="O415">
+        <v>1</v>
+      </c>
+      <c r="P415">
+        <v>0</v>
+      </c>
+      <c r="Q415">
+        <v>0</v>
+      </c>
+      <c r="S415">
+        <v>14</v>
+      </c>
+      <c r="T415" t="inlineStr">
+        <is>
+          <t>Everyday</t>
+        </is>
+      </c>
+      <c r="V415" t="inlineStr">
+        <is>
+          <t>Commuting to Work</t>
+        </is>
+      </c>
+      <c r="W415">
+        <v>0</v>
+      </c>
+      <c r="X415">
+        <v>0</v>
+      </c>
+      <c r="Y415">
+        <v>1</v>
+      </c>
+      <c r="Z415">
+        <v>0</v>
+      </c>
+      <c r="AA415">
+        <v>0</v>
+      </c>
+      <c r="AB415">
+        <v>0</v>
+      </c>
+      <c r="AD415" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AF415" t="inlineStr">
+        <is>
+          <t>essential</t>
+        </is>
+      </c>
+      <c r="AG415" t="inlineStr">
+        <is>
+          <t>most essential</t>
+        </is>
+      </c>
+      <c r="AH415" t="inlineStr">
+        <is>
+          <t>most essential</t>
+        </is>
+      </c>
+      <c r="AI415" t="inlineStr">
+        <is>
+          <t>most essential</t>
+        </is>
+      </c>
+      <c r="AN415" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AO415" t="inlineStr">
+        <is>
+          <t>Stongly disagree</t>
+        </is>
+      </c>
+      <c r="AQ415" t="inlineStr">
+        <is>
+          <t>Somewhat of a barrier</t>
+        </is>
+      </c>
+      <c r="AR415" t="inlineStr">
+        <is>
+          <t>Somewhat of a barrier</t>
+        </is>
+      </c>
+      <c r="AS415" t="inlineStr">
+        <is>
+          <t>Moderate barrier</t>
+        </is>
+      </c>
+      <c r="AT415" t="inlineStr">
+        <is>
+          <t>Somewhat of a barrier</t>
+        </is>
+      </c>
+      <c r="AU415" t="inlineStr">
+        <is>
+          <t>Extremely barrier</t>
+        </is>
+      </c>
+      <c r="AV415" t="inlineStr">
+        <is>
+          <t>Not a barrier</t>
+        </is>
+      </c>
+      <c r="AW415" t="inlineStr">
+        <is>
+          <t>Somewhat of a barrier</t>
+        </is>
+      </c>
+      <c r="AX415" t="inlineStr">
+        <is>
+          <t>The infrastructure is relatively growing as some parts to be prise Ngong road has a cycling lane. But there need to be a cycling lane on every road in Nairobi so as to enhance more people to join cycling and safety to be put in place.</t>
+        </is>
+      </c>
+      <c r="AY415" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="AZ415" t="inlineStr">
+        <is>
+          <t>Most motorists don't have respect to cyclists because they consider us as barriers to there raod usage which is wrong. We should have respect for each other starting from the pedestrians, cyclists and even motorists.</t>
+        </is>
+      </c>
+      <c r="BA415" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BB415" t="inlineStr">
+        <is>
+          <t>very important</t>
+        </is>
+      </c>
+      <c r="BC415" t="inlineStr">
+        <is>
+          <t>The Government should consider cycling as important by introducing cycling lessons in schools and also enacting a cycling lane on every road. This will enable most people to join cycling.</t>
+        </is>
+      </c>
+      <c r="BD415" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BE415" t="inlineStr">
+        <is>
+          <t>Bus</t>
+        </is>
+      </c>
+      <c r="BG415" t="inlineStr">
+        <is>
+          <t>Hoot</t>
+        </is>
+      </c>
+      <c r="BH415">
+        <v>0</v>
+      </c>
+      <c r="BI415">
+        <v>1</v>
+      </c>
+      <c r="BJ415">
+        <v>0</v>
+      </c>
+      <c r="BK415">
+        <v>0</v>
+      </c>
+      <c r="BL415" t="inlineStr">
+        <is>
+          <t>Conviency</t>
+        </is>
+      </c>
+      <c r="BM415" t="inlineStr">
+        <is>
+          <t>Creating cycling lanes</t>
+        </is>
+      </c>
+      <c r="BO415">
+        <v>327550871</v>
+      </c>
+      <c r="BP415" t="inlineStr">
+        <is>
+          <t>8e63cec1-bead-40fe-8e1f-e6b0749d1ff7</t>
+        </is>
+      </c>
+      <c r="BQ415" s="1">
+        <v>44802.39899305555</v>
+      </c>
+      <c r="BT415" t="inlineStr">
+        <is>
+          <t>submitted_via_web</t>
+        </is>
+      </c>
+      <c r="BW415">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1">
+        <v>44803.47386185185</v>
+      </c>
+      <c r="B416" s="1">
+        <v>44803.48996083334</v>
+      </c>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="I416" t="inlineStr">
+        <is>
+          <t>31-35</t>
+        </is>
+      </c>
+      <c r="J416" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>Cyclist</t>
+        </is>
+      </c>
+      <c r="M416">
+        <v>0</v>
+      </c>
+      <c r="N416">
+        <v>0</v>
+      </c>
+      <c r="O416">
+        <v>1</v>
+      </c>
+      <c r="P416">
+        <v>0</v>
+      </c>
+      <c r="Q416">
+        <v>0</v>
+      </c>
+      <c r="S416">
+        <v>6</v>
+      </c>
+      <c r="T416" t="inlineStr">
+        <is>
+          <t>Weekends only</t>
+        </is>
+      </c>
+      <c r="V416" t="inlineStr">
+        <is>
+          <t>Fitness</t>
+        </is>
+      </c>
+      <c r="W416">
+        <v>1</v>
+      </c>
+      <c r="X416">
+        <v>0</v>
+      </c>
+      <c r="Y416">
+        <v>0</v>
+      </c>
+      <c r="Z416">
+        <v>0</v>
+      </c>
+      <c r="AA416">
+        <v>0</v>
+      </c>
+      <c r="AB416">
+        <v>0</v>
+      </c>
+      <c r="AD416" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AF416" t="inlineStr">
+        <is>
+          <t>essential</t>
+        </is>
+      </c>
+      <c r="AG416" t="inlineStr">
+        <is>
+          <t>most essential</t>
+        </is>
+      </c>
+      <c r="AH416" t="inlineStr">
+        <is>
+          <t xml:space="preserve">least essential </t>
+        </is>
+      </c>
+      <c r="AI416" t="inlineStr">
+        <is>
+          <t>essential</t>
+        </is>
+      </c>
+      <c r="AN416" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AO416" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="AQ416" t="inlineStr">
+        <is>
+          <t>Not a barrier</t>
+        </is>
+      </c>
+      <c r="AR416" t="inlineStr">
+        <is>
+          <t>Not a barrier</t>
+        </is>
+      </c>
+      <c r="AS416" t="inlineStr">
+        <is>
+          <t>Somewhat of a barrier</t>
+        </is>
+      </c>
+      <c r="AT416" t="inlineStr">
+        <is>
+          <t>Somewhat of a barrier</t>
+        </is>
+      </c>
+      <c r="AU416" t="inlineStr">
+        <is>
+          <t>Extremely barrier</t>
+        </is>
+      </c>
+      <c r="AV416" t="inlineStr">
+        <is>
+          <t>Somewhat of a barrier</t>
+        </is>
+      </c>
+      <c r="AW416" t="inlineStr">
+        <is>
+          <t>Moderate barrier</t>
+        </is>
+      </c>
+      <c r="AX416" t="inlineStr">
+        <is>
+          <t>not end to end hence not useable</t>
+        </is>
+      </c>
+      <c r="AY416" t="inlineStr">
+        <is>
+          <t>Strongly Disagree</t>
+        </is>
+      </c>
+      <c r="AZ416" t="inlineStr">
+        <is>
+          <t>attitude towards cyclists</t>
+        </is>
+      </c>
+      <c r="BA416" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BB416" t="inlineStr">
+        <is>
+          <t>fairly important</t>
+        </is>
+      </c>
+      <c r="BC416" t="inlineStr">
+        <is>
+          <t>demarcated bike lanes</t>
+        </is>
+      </c>
+      <c r="BD416" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BL416" t="inlineStr">
+        <is>
+          <t>demarcated bike lanes, Changing rooms with shower and safe bike storage</t>
+        </is>
+      </c>
+      <c r="BM416" t="inlineStr">
+        <is>
+          <t>Reduce taxation on Bike and related equipment and create more awareness</t>
+        </is>
+      </c>
+      <c r="BO416">
+        <v>328043176</v>
+      </c>
+      <c r="BP416" t="inlineStr">
+        <is>
+          <t>7d3c3d28-14fa-4035-9a12-a089342b1f1c</t>
+        </is>
+      </c>
+      <c r="BQ416" s="1">
+        <v>44803.36509259259</v>
+      </c>
+      <c r="BT416" t="inlineStr">
+        <is>
+          <t>submitted_via_web</t>
+        </is>
+      </c>
+      <c r="BW416">
+        <v>415</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
